--- a/Civilworks cost/RADP Preparations/Kishoregonj/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Kishoregonj/Projecttion_input.xlsx
@@ -8730,10 +8730,10 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8998,21 +8998,21 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="51.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="51.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -9518,7 +9518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="61.2" customHeight="1">
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="61.15" customHeight="1">
       <c r="A12" s="111">
         <v>11</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="61.2" customHeight="1">
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="61.15" customHeight="1">
       <c r="A15" s="111">
         <v>14</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="34" customFormat="1" ht="55.2" customHeight="1">
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="55.15" customHeight="1">
       <c r="A24" s="111">
         <v>21</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="43.2" customHeight="1">
+    <row r="41" spans="1:16" ht="43.15" customHeight="1">
       <c r="A41" s="111">
         <v>40</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="43.2" customHeight="1">
+    <row r="43" spans="1:16" ht="43.15" customHeight="1">
       <c r="A43" s="111">
         <v>42</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="55.2" customHeight="1">
+    <row r="44" spans="1:16" ht="55.15" customHeight="1">
       <c r="A44" s="111">
         <v>43</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="43.2" customHeight="1">
+    <row r="45" spans="1:16" ht="43.15" customHeight="1">
       <c r="A45" s="111">
         <v>44</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.2" customHeight="1">
+    <row r="46" spans="1:16" ht="43.15" customHeight="1">
       <c r="A46" s="111">
         <v>45</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="43.2" customHeight="1">
+    <row r="47" spans="1:16" ht="43.15" customHeight="1">
       <c r="A47" s="111">
         <v>46</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.2" customHeight="1">
+    <row r="48" spans="1:16" ht="43.15" customHeight="1">
       <c r="A48" s="128">
         <v>47</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.2" customHeight="1">
+    <row r="49" spans="1:15" ht="43.15" customHeight="1">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="48"/>
@@ -11245,7 +11245,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="64"/>
     </row>
-    <row r="50" spans="1:15" ht="43.2" customHeight="1">
+    <row r="50" spans="1:15" ht="43.15" customHeight="1">
       <c r="A50" s="93"/>
       <c r="B50" s="93"/>
       <c r="C50" s="135"/>
@@ -11262,7 +11262,7 @@
       <c r="N50" s="93"/>
       <c r="O50" s="137"/>
     </row>
-    <row r="51" spans="1:15" ht="43.2" customHeight="1">
+    <row r="51" spans="1:15" ht="43.15" customHeight="1">
       <c r="A51" s="93"/>
       <c r="B51" s="93"/>
       <c r="C51" s="135"/>
@@ -11279,7 +11279,7 @@
       <c r="N51" s="93"/>
       <c r="O51" s="137"/>
     </row>
-    <row r="52" spans="1:15" ht="43.2" customHeight="1">
+    <row r="52" spans="1:15" ht="43.15" customHeight="1">
       <c r="A52" s="93"/>
       <c r="B52" s="93"/>
       <c r="C52" s="135"/>
@@ -11296,8 +11296,8 @@
       <c r="N52" s="93"/>
       <c r="O52" s="137"/>
     </row>
-    <row r="53" spans="1:15" ht="32.700000000000003" customHeight="1"/>
-    <row r="54" spans="1:15" ht="31.2" customHeight="1">
+    <row r="53" spans="1:15" ht="32.65" customHeight="1"/>
+    <row r="54" spans="1:15" ht="31.15" customHeight="1">
       <c r="E54" s="19"/>
       <c r="F54" s="138" t="s">
         <v>336</v>
@@ -11319,7 +11319,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="31.2" customHeight="1">
+    <row r="55" spans="1:15" ht="31.15" customHeight="1">
       <c r="E55" s="92" t="s">
         <v>122</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>737.31</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="31.2" customHeight="1">
+    <row r="56" spans="1:15" ht="31.15" customHeight="1">
       <c r="E56" s="92" t="s">
         <v>133</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>126.12607828129785</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="31.2" customHeight="1">
+    <row r="57" spans="1:15" ht="31.15" customHeight="1">
       <c r="E57" s="92" t="s">
         <v>184</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>256.16000000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31.2" customHeight="1">
+    <row r="58" spans="1:15" ht="31.15" customHeight="1">
       <c r="E58" s="92" t="s">
         <v>144</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>583.96524217689739</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31.2" customHeight="1">
+    <row r="59" spans="1:15" ht="31.15" customHeight="1">
       <c r="E59" s="92" t="s">
         <v>155</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>604.22301787267156</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="31.2" customHeight="1">
+    <row r="60" spans="1:15" ht="31.15" customHeight="1">
       <c r="E60" s="92" t="s">
         <v>174</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>318.63482352406112</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="31.2" customHeight="1">
+    <row r="61" spans="1:15" ht="31.15" customHeight="1">
       <c r="F61" s="95">
         <f>SUM(F55:F60)</f>
         <v>7825.8594837851497</v>
@@ -11526,7 +11526,7 @@
         <v>2626.419161854928</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31.2" customHeight="1">
+    <row r="62" spans="1:15" ht="31.15" customHeight="1">
       <c r="E62" s="94"/>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
@@ -11535,8 +11535,8 @@
       <c r="J62" s="93"/>
       <c r="K62" s="93"/>
     </row>
-    <row r="63" spans="1:15" ht="31.2" customHeight="1"/>
-    <row r="64" spans="1:15" ht="31.2" customHeight="1"/>
+    <row r="63" spans="1:15" ht="31.15" customHeight="1"/>
+    <row r="64" spans="1:15" ht="31.15" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:O48">
     <sortCondition ref="B2:B48"/>
@@ -11561,22 +11561,22 @@
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" customWidth="1"/>
-    <col min="10" max="10" width="31.6640625" customWidth="1"/>
-    <col min="11" max="13" width="24.33203125" customWidth="1"/>
-    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.33203125" style="71" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="11" max="13" width="24.28515625" customWidth="1"/>
+    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" style="71" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -13242,7 +13242,7 @@
       <c r="P40" s="85"/>
       <c r="Q40" s="34"/>
     </row>
-    <row r="41" spans="1:17" ht="43.2" customHeight="1">
+    <row r="41" spans="1:17" ht="43.15" customHeight="1">
       <c r="A41" s="69">
         <v>45</v>
       </c>
@@ -13284,7 +13284,7 @@
       <c r="P41" s="82"/>
       <c r="Q41" s="31"/>
     </row>
-    <row r="42" spans="1:17" ht="43.2" customHeight="1">
+    <row r="42" spans="1:17" ht="43.15" customHeight="1">
       <c r="A42" s="69">
         <v>30</v>
       </c>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="Q42" s="31"/>
     </row>
-    <row r="43" spans="1:17" ht="43.2" customHeight="1">
+    <row r="43" spans="1:17" ht="43.15" customHeight="1">
       <c r="A43" s="69">
         <v>33</v>
       </c>
@@ -13372,7 +13372,7 @@
       </c>
       <c r="Q43" s="31"/>
     </row>
-    <row r="44" spans="1:17" ht="43.2" customHeight="1">
+    <row r="44" spans="1:17" ht="43.15" customHeight="1">
       <c r="A44" s="69">
         <v>36</v>
       </c>
@@ -13416,7 +13416,7 @@
       </c>
       <c r="Q44" s="31"/>
     </row>
-    <row r="45" spans="1:17" ht="43.2" customHeight="1">
+    <row r="45" spans="1:17" ht="43.15" customHeight="1">
       <c r="A45" s="69">
         <v>39</v>
       </c>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="Q45" s="31"/>
     </row>
-    <row r="46" spans="1:17" ht="43.2" customHeight="1">
+    <row r="46" spans="1:17" ht="43.15" customHeight="1">
       <c r="A46" s="69">
         <v>43</v>
       </c>
@@ -13504,7 +13504,7 @@
       </c>
       <c r="Q46" s="31"/>
     </row>
-    <row r="47" spans="1:17" ht="43.2" customHeight="1">
+    <row r="47" spans="1:17" ht="43.15" customHeight="1">
       <c r="A47" s="69">
         <v>46</v>
       </c>
@@ -13546,7 +13546,7 @@
       <c r="P47" s="84"/>
       <c r="Q47" s="31"/>
     </row>
-    <row r="48" spans="1:17" ht="43.2" customHeight="1">
+    <row r="48" spans="1:17" ht="43.15" customHeight="1">
       <c r="A48" s="69">
         <v>47</v>
       </c>
@@ -13588,7 +13588,7 @@
       <c r="P48" s="86"/>
       <c r="Q48" s="31"/>
     </row>
-    <row r="49" spans="1:16" ht="43.2" customHeight="1">
+    <row r="49" spans="1:16" ht="43.15" customHeight="1">
       <c r="A49" s="192" t="s">
         <v>118</v>
       </c>
@@ -13623,7 +13623,7 @@
       <c r="O49" s="19"/>
       <c r="P49" s="87"/>
     </row>
-    <row r="50" spans="1:16" ht="43.2" customHeight="1">
+    <row r="50" spans="1:16" ht="43.15" customHeight="1">
       <c r="A50" s="92"/>
       <c r="B50" s="92"/>
       <c r="C50" s="92"/>
@@ -13641,7 +13641,7 @@
       <c r="O50" s="19"/>
       <c r="P50" s="87"/>
     </row>
-    <row r="51" spans="1:16" ht="43.2" customHeight="1">
+    <row r="51" spans="1:16" ht="43.15" customHeight="1">
       <c r="A51" s="92"/>
       <c r="B51" s="92"/>
       <c r="C51" s="92"/>
@@ -13933,12 +13933,12 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="9" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14515,13 +14515,13 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14689,14 +14689,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.88671875" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15015,20 +15015,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -15071,7 +15071,7 @@
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="53.7" customHeight="1">
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="53.65" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>120</v>
       </c>
@@ -15287,7 +15287,7 @@
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1" ht="43.2" customHeight="1">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="43.15" customHeight="1">
       <c r="A8" s="49" t="s">
         <v>131</v>
       </c>
@@ -16780,27 +16780,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="53" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
     <col min="6" max="6" width="26" style="24" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="25" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="25" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="24" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="55.5" customHeight="1">
@@ -17092,7 +17092,7 @@
       <c r="N7" s="47"/>
       <c r="O7" s="47"/>
     </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="43.2" customHeight="1">
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>505</v>
       </c>
@@ -17870,7 +17870,7 @@
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
     </row>
-    <row r="28" spans="1:15" s="163" customFormat="1" ht="32.4" customHeight="1">
+    <row r="28" spans="1:15" s="163" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>487</v>
       </c>
@@ -17909,7 +17909,7 @@
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
     </row>
-    <row r="29" spans="1:15" s="163" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="29" spans="1:15" s="163" customFormat="1" ht="34.15" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>487</v>
       </c>
@@ -18494,7 +18494,7 @@
       <c r="N43" s="47"/>
       <c r="O43" s="47"/>
     </row>
-    <row r="44" spans="1:15" s="14" customFormat="1" ht="43.2" customHeight="1">
+    <row r="44" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>469</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="61.2" customHeight="1">
+    <row r="52" spans="1:13" ht="61.15" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>441</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="58.2" customHeight="1">
+    <row r="53" spans="1:13" ht="58.15" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>441</v>
       </c>
@@ -18870,7 +18870,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="58.2" customHeight="1">
+    <row r="54" spans="1:13" ht="58.15" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>440</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="62.7" customHeight="1">
+    <row r="75" spans="1:13" ht="62.65" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>413</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="49.2" customHeight="1">
+    <row r="78" spans="1:13" ht="49.15" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>413</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="36">
+    <row r="79" spans="1:13" ht="37.5">
       <c r="A79" s="8" t="s">
         <v>413</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="36">
+    <row r="81" spans="1:13" ht="37.5">
       <c r="A81" s="8" t="s">
         <v>413</v>
       </c>
@@ -19900,7 +19900,7 @@
       </c>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="1:13" ht="41.7" customHeight="1">
+    <row r="82" spans="1:13" ht="41.65" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>413</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="36">
+    <row r="84" spans="1:13" ht="37.5">
       <c r="A84" s="8" t="s">
         <v>508</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="43.2" customHeight="1">
+    <row r="85" spans="1:13" ht="43.15" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>508</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="43.2" customHeight="1">
+    <row r="86" spans="1:13" ht="43.15" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>508</v>
       </c>
@@ -20077,7 +20077,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="43.2" customHeight="1">
+    <row r="87" spans="1:13" ht="43.15" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>508</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="43.2" customHeight="1">
+    <row r="88" spans="1:13" ht="43.15" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>508</v>
       </c>
@@ -20143,7 +20143,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="43.2" customHeight="1">
+    <row r="89" spans="1:13" ht="43.15" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>508</v>
       </c>
@@ -20178,7 +20178,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="43.2" customHeight="1">
+    <row r="90" spans="1:13" ht="43.15" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>508</v>
       </c>
@@ -20213,7 +20213,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="43.2" customHeight="1">
+    <row r="91" spans="1:13" ht="43.15" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>508</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="35.700000000000003" customHeight="1">
+    <row r="93" spans="1:13" ht="35.65" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>419</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="59.7" customHeight="1">
+    <row r="94" spans="1:13" ht="59.65" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>419</v>
       </c>
@@ -20357,7 +20357,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="59.7" customHeight="1">
+    <row r="95" spans="1:13" ht="59.65" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>384</v>
       </c>
@@ -20394,7 +20394,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="59.7" customHeight="1">
+    <row r="96" spans="1:13" ht="59.65" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>384</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="59.7" customHeight="1">
+    <row r="97" spans="1:13" ht="59.65" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>384</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="59.7" customHeight="1">
+    <row r="98" spans="1:13" ht="59.65" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>384</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="59.7" customHeight="1">
+    <row r="99" spans="1:13" ht="59.65" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>384</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="59.7" customHeight="1">
+    <row r="100" spans="1:13" ht="59.65" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>384</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="36">
+    <row r="101" spans="1:13" ht="37.5">
       <c r="A101" s="8" t="s">
         <v>384</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="36">
+    <row r="102" spans="1:13" ht="37.5">
       <c r="A102" s="8" t="s">
         <v>384</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="36">
+    <row r="103" spans="1:13" ht="37.5">
       <c r="A103" s="8" t="s">
         <v>384</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="36">
+    <row r="104" spans="1:13" ht="37.5">
       <c r="A104" s="8" t="s">
         <v>524</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="36">
+    <row r="105" spans="1:13" ht="37.5">
       <c r="A105" s="8" t="s">
         <v>524</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="36">
+    <row r="106" spans="1:13" ht="56.25">
       <c r="A106" s="8" t="s">
         <v>524</v>
       </c>
@@ -20807,7 +20807,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="36">
+    <row r="107" spans="1:13" ht="37.5">
       <c r="A107" s="8" t="s">
         <v>524</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="36">
+    <row r="109" spans="1:13" ht="37.5">
       <c r="A109" s="8" t="s">
         <v>408</v>
       </c>
@@ -20920,7 +20920,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="36">
+    <row r="110" spans="1:13" ht="37.5">
       <c r="A110" s="8" t="s">
         <v>408</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="36">
+    <row r="111" spans="1:13" ht="37.5">
       <c r="A111" s="8" t="s">
         <v>408</v>
       </c>
@@ -20994,7 +20994,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="36">
+    <row r="112" spans="1:13" ht="37.5">
       <c r="A112" s="8" t="s">
         <v>408</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="36">
+    <row r="113" spans="1:13" ht="37.5">
       <c r="A113" s="8" t="s">
         <v>408</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="36">
+    <row r="114" spans="1:13" ht="37.5">
       <c r="A114" s="8" t="s">
         <v>408</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="36">
+    <row r="115" spans="1:13" ht="37.5">
       <c r="A115" s="8" t="s">
         <v>408</v>
       </c>
@@ -21179,7 +21179,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="36">
+    <row r="117" spans="1:13" ht="37.5">
       <c r="A117" s="8" t="s">
         <v>408</v>
       </c>
@@ -21216,7 +21216,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="36">
+    <row r="118" spans="1:13" ht="37.5">
       <c r="A118" s="8" t="s">
         <v>408</v>
       </c>
@@ -21253,7 +21253,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="36">
+    <row r="119" spans="1:13" ht="37.5">
       <c r="A119" s="8" t="s">
         <v>408</v>
       </c>
@@ -21290,7 +21290,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="36">
+    <row r="120" spans="1:13" ht="37.5">
       <c r="A120" s="8" t="s">
         <v>408</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="36">
+    <row r="122" spans="1:13" ht="37.5">
       <c r="A122" s="8" t="s">
         <v>355</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="36">
+    <row r="123" spans="1:13" ht="37.5">
       <c r="A123" s="8" t="s">
         <v>355</v>
       </c>
@@ -21442,7 +21442,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="36">
+    <row r="124" spans="1:13" ht="37.5">
       <c r="A124" s="8" t="s">
         <v>355</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="36">
+    <row r="125" spans="1:13" ht="37.5">
       <c r="A125" s="8" t="s">
         <v>355</v>
       </c>
@@ -21520,7 +21520,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="36">
+    <row r="126" spans="1:13" ht="37.5">
       <c r="A126" s="8" t="s">
         <v>355</v>
       </c>
@@ -21559,7 +21559,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="36">
+    <row r="127" spans="1:13" ht="37.5">
       <c r="A127" s="8" t="s">
         <v>355</v>
       </c>
@@ -21598,7 +21598,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="36">
+    <row r="128" spans="1:13" ht="37.5">
       <c r="A128" s="8" t="s">
         <v>355</v>
       </c>
@@ -21637,7 +21637,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="36">
+    <row r="129" spans="1:14" ht="37.5">
       <c r="A129" s="8" t="s">
         <v>366</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="36">
+    <row r="130" spans="1:14" ht="37.5">
       <c r="A130" s="8" t="s">
         <v>379</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="36">
+    <row r="131" spans="1:14" ht="37.5">
       <c r="A131" s="8" t="s">
         <v>379</v>
       </c>
@@ -21754,7 +21754,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="36">
+    <row r="132" spans="1:14" ht="37.5">
       <c r="A132" s="8" t="s">
         <v>379</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="36">
+    <row r="133" spans="1:14" ht="37.5">
       <c r="A133" s="8" t="s">
         <v>379</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="36">
+    <row r="134" spans="1:14" ht="37.5">
       <c r="A134" s="8" t="s">
         <v>379</v>
       </c>
@@ -21871,7 +21871,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="36">
+    <row r="135" spans="1:14" ht="37.5">
       <c r="A135" s="8" t="s">
         <v>379</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="36">
+    <row r="136" spans="1:14" ht="37.5">
       <c r="A136" s="8" t="s">
         <v>379</v>
       </c>
@@ -21949,7 +21949,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="36">
+    <row r="137" spans="1:14" ht="37.5">
       <c r="A137" s="8" t="s">
         <v>379</v>
       </c>
@@ -21988,7 +21988,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="36">
+    <row r="138" spans="1:14" ht="37.5">
       <c r="A138" s="8" t="s">
         <v>374</v>
       </c>
@@ -22027,7 +22027,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="36">
+    <row r="139" spans="1:14" ht="37.5">
       <c r="A139" s="8" t="s">
         <v>374</v>
       </c>
@@ -22066,7 +22066,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="36">
+    <row r="140" spans="1:14" ht="37.5">
       <c r="A140" s="8" t="s">
         <v>374</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="36">
+    <row r="141" spans="1:14" ht="37.5">
       <c r="A141" s="8" t="s">
         <v>374</v>
       </c>
@@ -22144,7 +22144,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="36">
+    <row r="142" spans="1:14" ht="37.5">
       <c r="A142" s="75" t="s">
         <v>374</v>
       </c>
@@ -22223,7 +22223,7 @@
       </c>
       <c r="N143" s="19"/>
     </row>
-    <row r="144" spans="1:14" ht="35.4" customHeight="1">
+    <row r="144" spans="1:14" ht="35.450000000000003" customHeight="1">
       <c r="A144" s="75" t="s">
         <v>571</v>
       </c>
@@ -22263,7 +22263,7 @@
       </c>
       <c r="N144" s="19"/>
     </row>
-    <row r="145" spans="1:14" ht="22.8" customHeight="1">
+    <row r="145" spans="1:14" ht="22.9" customHeight="1">
       <c r="A145" s="75" t="s">
         <v>571</v>
       </c>
@@ -22303,7 +22303,7 @@
       </c>
       <c r="N145" s="19"/>
     </row>
-    <row r="146" spans="1:14" ht="22.8" customHeight="1">
+    <row r="146" spans="1:14" ht="22.9" customHeight="1">
       <c r="A146" s="75" t="s">
         <v>571</v>
       </c>
@@ -22343,7 +22343,7 @@
       </c>
       <c r="N146" s="19"/>
     </row>
-    <row r="147" spans="1:14" ht="22.8" customHeight="1">
+    <row r="147" spans="1:14" ht="22.9" customHeight="1">
       <c r="A147" s="8" t="s">
         <v>571</v>
       </c>
@@ -22383,7 +22383,7 @@
       </c>
       <c r="N147" s="19"/>
     </row>
-    <row r="148" spans="1:14" ht="14.4" customHeight="1">
+    <row r="148" spans="1:14" ht="14.45" customHeight="1">
       <c r="B148" s="188"/>
     </row>
   </sheetData>
@@ -22410,20 +22410,20 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="31.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -24317,21 +24317,21 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="9" width="14.33203125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="24" customWidth="1"/>
+    <col min="5" max="9" width="14.28515625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="24" customWidth="1"/>
     <col min="14" max="14" width="17" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="25" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" style="24" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="25" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="24" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="57.75" customHeight="1">
@@ -26008,20 +26008,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -27762,11 +27762,11 @@
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -28212,23 +28212,23 @@
       <selection activeCell="I46" sqref="I46:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" style="145" customWidth="1"/>
     <col min="7" max="7" width="16" style="145" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" style="148" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" style="145" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="148" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="145" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="148" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="145" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="148" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="145" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -30238,7 +30238,7 @@
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
     </row>
-    <row r="49" spans="4:15" ht="31.2" customHeight="1">
+    <row r="49" spans="4:15" ht="31.15" customHeight="1">
       <c r="D49" s="150"/>
       <c r="E49" s="134" t="s">
         <v>40</v>
@@ -30340,7 +30340,7 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="4:15" ht="34.200000000000003" customHeight="1">
+    <row r="52" spans="4:15" ht="34.15" customHeight="1">
       <c r="E52" s="134" t="s">
         <v>74</v>
       </c>
@@ -30373,7 +30373,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="4:15" ht="34.200000000000003" customHeight="1">
+    <row r="53" spans="4:15" ht="34.15" customHeight="1">
       <c r="E53" s="134" t="s">
         <v>97</v>
       </c>
